--- a/Multivariate_table_short.xlsx
+++ b/Multivariate_table_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/997f1e7eedf7976e/Dokumenter/Kanddidat/2. Semester/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/tsupa_dtu_dk/Documents/Thomas School/OMMWS/Assignment/water_resources_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA371CB-F9C5-458D-B331-2C679616CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{9CA371CB-F9C5-458D-B331-2C679616CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42390BF7-9657-0B40-A463-25AECB311710}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9BDD00B8-DBEC-44A5-BD79-711E34949729}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27700" windowHeight="16500" xr2:uid="{9BDD00B8-DBEC-44A5-BD79-711E34949729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Policy A</t>
   </si>
@@ -50,13 +50,19 @@
     <t>Flood safety [MCM]</t>
   </si>
   <si>
-    <t>Demand meet [%]</t>
-  </si>
-  <si>
     <t>Total benefit [million THB/year]</t>
   </si>
   <si>
     <t>Environmental impact</t>
+  </si>
+  <si>
+    <t>Cost [million THB]</t>
+  </si>
+  <si>
+    <t>Resettlement population</t>
+  </si>
+  <si>
+    <t>Demand met [%]</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,11 +128,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -138,6 +155,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -454,37 +474,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AC4DA3-FCE1-4F24-A351-E19ED63A2DCE}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,13 +522,19 @@
         <v>44.807000000000002</v>
       </c>
       <c r="D2" s="3">
-        <v>75.62</v>
+        <v>83.75</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,13 +545,22 @@
         <v>44.213999999999999</v>
       </c>
       <c r="D3" s="3">
-        <v>77.5</v>
+        <v>85.95</v>
       </c>
       <c r="E3" s="3">
-        <v>10</v>
+        <f>-3000</f>
+        <v>-3000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>-(48*5000000*34/1000000)</f>
+        <v>-8160</v>
+      </c>
+      <c r="G3" s="3">
+        <f>-10</f>
+        <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -529,11 +571,23 @@
         <v>37.962000000000003</v>
       </c>
       <c r="D4" s="3">
-        <v>73.89</v>
+        <v>82.25</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
-      </c>
+        <f>-3000</f>
+        <v>-3000</v>
+      </c>
+      <c r="F4" s="3">
+        <f>-(48*5000000*34/1000000)</f>
+        <v>-8160</v>
+      </c>
+      <c r="G4" s="3">
+        <f>-5</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
